--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Homework/level_2/files/sample_translation_comments_added.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Homework/level_2/files/sample_translation_comments_added.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,9 +37,6 @@
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,7 +59,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -73,7 +70,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -501,7 +497,7 @@
     <row r="1" customFormat="1" s="3">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Creation Date</t>
+          <t>Source Comment</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -517,16 +513,6 @@
       <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Target text</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Source text comment</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Target text comment</t>
         </is>
       </c>
     </row>
@@ -547,16 +533,6 @@
           <t xml:space="preserve">Deutsche Post DHL Group ist das weltweit führende Logistikunternehmen. </t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>This is a source comment.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>This is a target comment.</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -609,11 +585,6 @@
       <c r="D5" s="1" t="inlineStr">
         <is>
           <t>Dazu setzt Deutsche Post DHL Group auf Wachstum in den profitablen logistischen Kerngeschäften und beschleunigt die digitale Transformation in allen Unternehmensbereichen.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>This is another target comment.</t>
         </is>
       </c>
     </row>
@@ -657,239 +628,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010033FBBAA1BE071D4B8444C5C9C28782C8" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de548722d27cd508085855d69f661948">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc2a8800-0ce7-40c2-8200-3a8c152868ba" xmlns:ns3="6e8def6e-378a-40df-8842-fa93ef8f3c1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b0cb2b0c94d59d70fca913d112f0e66" ns2:_="" ns3:_="">
-    <xsd:import namespace="cc2a8800-0ce7-40c2-8200-3a8c152868ba"/>
-    <xsd:import namespace="6e8def6e-378a-40df-8842-fa93ef8f3c1d"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cc2a8800-0ce7-40c2-8200-3a8c152868ba" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="4fbeab33-86a2-4d10-91a0-ba0aecc47a1f" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6e8def6e-378a-40df-8842-fa93ef8f3c1d" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{6a81522b-07a3-4046-9a6b-5704561213d2}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="6e8def6e-378a-40df-8842-fa93ef8f3c1d">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cc2a8800-0ce7-40c2-8200-3a8c152868ba">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6e8def6e-378a-40df-8842-fa93ef8f3c1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E31858A-F154-4FCB-8F44-EF0B53530346}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F700A6-D279-4DDC-8F97-7090B19187DB}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B2AB154-937F-4382-A05E-B56CCB33FF14}"/>
 </file>